--- a/HardwareDesignDrafts.xlsx
+++ b/HardwareDesignDrafts.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="27600" windowHeight="13020"/>
+    <workbookView xWindow="2400" yWindow="0" windowWidth="27600" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Crystal CL" sheetId="1" r:id="rId1"/>
+    <sheet name="LED ballast" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>CL</t>
   </si>
@@ -33,13 +34,55 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Vsw</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>I to R</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R to I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +98,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -98,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +167,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -392,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
@@ -420,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <f>2*(A2-B2)</f>
+        <f t="shared" ref="C2:C9" si="0">2*(A2-B2)</f>
         <v>12</v>
       </c>
     </row>
@@ -432,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <f>2*(A3-B3)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -444,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f>2*(A4-B4)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -456,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <f>2*(A5-B5)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -468,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <f>2*(A6-B6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -480,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>2*(A7-B7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -492,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <f>2*(A8-B8)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -504,8 +566,216 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <f>2*(A9-B9)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B3-B4-B6</f>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B8/B5</f>
+        <v>69.999999999999986</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <f>B8*B5</f>
+        <v>6.9999999999999984E-3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B14-B15-B17</f>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <f>B19/B16</f>
+        <v>6.9999999999999984E-3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6">
+        <f>B20*B19</f>
+        <v>4.8999999999999981E-3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
